--- a/files/58b78f65-d1de-4ff4-a41a-65f94af79a40_gt.xlsx
+++ b/files/58b78f65-d1de-4ff4-a41a-65f94af79a40_gt.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28000" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,82 +29,216 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Jun</t>
+    <t>Jun</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul</t>
+    <t>Jul</t>
   </si>
   <si>
-    <t xml:space="preserve">Aug</t>
+    <t>Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">Sep</t>
+    <t>Sep</t>
   </si>
   <si>
-    <t xml:space="preserve">Oct</t>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="思源黑体 CN Normal"/>
-      <family val="0"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF374151"/>
       <name val="Söhne"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="Söhne"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Söhne"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,16 +257,202 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="13">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFD9D9E3"/>
       </left>
@@ -138,14 +465,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFD9D9E3"/>
       </left>
@@ -156,7 +476,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFD9D9E3"/>
       </left>
@@ -169,206 +498,674 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="18">
     <dxf>
       <font>
         <name val="Arial"/>
+        <scheme val="none"/>
         <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9E3"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF374151"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00D9D9E3"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00374151"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +1192,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -419,7 +1216,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -479,32 +1276,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="13.66"/>
+    <col min="2" max="6" width="12.6517857142857" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,543 +1314,539 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="n">
+    <row r="3" customHeight="1" spans="2:6">
+      <c r="B3" s="3">
         <v>44713</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3">
         <v>44743</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3">
         <v>44774</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3">
         <v>44805</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6">
         <v>44835</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="n">
+    <row r="4" customHeight="1" spans="2:6">
+      <c r="B4" s="3">
         <v>44714</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="4">
         <v>44744</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3">
         <v>44775</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3">
         <v>44806</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6">
         <v>44836</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
+    <row r="5" customHeight="1" spans="2:6">
+      <c r="B5" s="3">
         <v>44715</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="4">
         <v>44745</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3">
         <v>44776</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="4">
         <v>44807</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>44837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="n">
+    <row r="6" customHeight="1" spans="2:6">
+      <c r="B6" s="4">
         <v>44716</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3">
         <v>44746</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3">
         <v>44777</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="4">
         <v>44808</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>44838</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="n">
+    <row r="7" customHeight="1" spans="2:6">
+      <c r="B7" s="4">
         <v>44717</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3">
         <v>44747</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3">
         <v>44778</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3">
         <v>44809</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>44839</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+    <row r="8" customHeight="1" spans="2:6">
+      <c r="B8" s="3">
         <v>44718</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3">
         <v>44748</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="4">
         <v>44779</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3">
         <v>44810</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>44840</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+    <row r="9" customHeight="1" spans="2:6">
+      <c r="B9" s="3">
         <v>44719</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3">
         <v>44749</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="4">
         <v>44780</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3">
         <v>44811</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="7">
         <v>44841</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
+    <row r="10" customHeight="1" spans="2:6">
+      <c r="B10" s="3">
         <v>44720</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3">
         <v>44750</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="3">
         <v>44781</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3">
         <v>44812</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6">
         <v>44842</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
+    <row r="11" customHeight="1" spans="2:6">
+      <c r="B11" s="3">
         <v>44721</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="4">
         <v>44751</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="3">
         <v>44782</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3">
         <v>44813</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6">
         <v>44843</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="3">
         <v>44722</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="4">
         <v>44752</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="3">
         <v>44783</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="4">
         <v>44814</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>44844</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="n">
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13" s="4">
         <v>44723</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3">
         <v>44753</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="3">
         <v>44784</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="4">
         <v>44815</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="7">
         <v>44845</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="n">
+    <row r="14" customHeight="1" spans="2:6">
+      <c r="B14" s="4">
         <v>44724</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3">
         <v>44754</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="3">
         <v>44785</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3">
         <v>44816</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>44846</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
+    <row r="15" customHeight="1" spans="2:6">
+      <c r="B15" s="3">
         <v>44725</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3">
         <v>44755</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="4">
         <v>44786</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="3">
         <v>44817</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="7">
         <v>44847</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="n">
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="3">
         <v>44726</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3">
         <v>44756</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="4">
         <v>44787</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3">
         <v>44818</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="7">
         <v>44848</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
+    <row r="17" customHeight="1" spans="2:6">
+      <c r="B17" s="3">
         <v>44727</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3">
         <v>44757</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="3">
         <v>44788</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="3">
         <v>44819</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6">
         <v>44849</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="n">
+    <row r="18" customHeight="1" spans="2:6">
+      <c r="B18" s="3">
         <v>44728</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="4">
         <v>44758</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="3">
         <v>44789</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="3">
         <v>44820</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6">
         <v>44850</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
+    <row r="19" customHeight="1" spans="2:6">
+      <c r="B19" s="3">
         <v>44729</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="4">
         <v>44759</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="3">
         <v>44790</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="4">
         <v>44821</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="7">
         <v>44851</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="n">
+    <row r="20" customHeight="1" spans="2:6">
+      <c r="B20" s="4">
         <v>44730</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="3">
         <v>44760</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="3">
         <v>44791</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="4">
         <v>44822</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="7">
         <v>44852</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="n">
+    <row r="21" customHeight="1" spans="2:6">
+      <c r="B21" s="4">
         <v>44731</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="3">
         <v>44761</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="3">
         <v>44792</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3">
         <v>44823</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="7">
         <v>44853</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="n">
+    <row r="22" customHeight="1" spans="2:6">
+      <c r="B22" s="3">
         <v>44732</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="3">
         <v>44762</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="4">
         <v>44793</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="3">
         <v>44824</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>44854</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="n">
+    <row r="23" customHeight="1" spans="2:6">
+      <c r="B23" s="3">
         <v>44733</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="3">
         <v>44763</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="4">
         <v>44794</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="3">
         <v>44825</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="7">
         <v>44855</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="n">
+    <row r="24" customHeight="1" spans="2:6">
+      <c r="B24" s="3">
         <v>44734</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="3">
         <v>44764</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3">
         <v>44795</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="3">
         <v>44826</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6">
         <v>44856</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="n">
+    <row r="25" customHeight="1" spans="2:6">
+      <c r="B25" s="3">
         <v>44735</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="4">
         <v>44765</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="3">
         <v>44796</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3">
         <v>44827</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6">
         <v>44857</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="n">
+    <row r="26" customHeight="1" spans="2:6">
+      <c r="B26" s="3">
         <v>44736</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="4">
         <v>44766</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="3">
         <v>44797</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="4">
         <v>44828</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="7">
         <v>44858</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="6" t="n">
+    <row r="27" customHeight="1" spans="2:6">
+      <c r="B27" s="4">
         <v>44737</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="3">
         <v>44767</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="3">
         <v>44798</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="4">
         <v>44829</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="7">
         <v>44859</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="6" t="n">
+    <row r="28" customHeight="1" spans="2:6">
+      <c r="B28" s="4">
         <v>44738</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="3">
         <v>44768</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="3">
         <v>44799</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="3">
         <v>44830</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="7">
         <v>44860</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="n">
+    <row r="29" customHeight="1" spans="2:6">
+      <c r="B29" s="3">
         <v>44739</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="3">
         <v>44769</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="4">
         <v>44800</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3">
         <v>44831</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="7">
         <v>44861</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="n">
+    <row r="30" customHeight="1" spans="2:6">
+      <c r="B30" s="3">
         <v>44740</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="3">
         <v>44770</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="4">
         <v>44801</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="3">
         <v>44832</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="7">
         <v>44862</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="n">
+    <row r="31" customHeight="1" spans="2:6">
+      <c r="B31" s="3">
         <v>44741</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="3">
         <v>44771</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="3">
         <v>44802</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="3">
         <v>44833</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6">
         <v>44863</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="n">
+    <row r="32" customHeight="1" spans="2:6">
+      <c r="B32" s="3">
         <v>44742</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="4">
         <v>44772</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="3">
         <v>44803</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3">
         <v>44834</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6">
         <v>44864</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6" t="n">
+    <row r="33" customHeight="1" spans="3:6">
+      <c r="C33" s="4">
         <v>44773</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="3">
         <v>44804</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>44865</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F33">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(B3&lt;&gt;"",WEEKDAY(B3,11)&gt;5,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>